--- a/План перевозок 2025-2029.xlsx
+++ b/План перевозок 2025-2029.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Изменения" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Параметры 2027" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Параметры 2028" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Параметры 2029" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Показатели" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Вместимость" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="524">
   <si>
     <t>Маршрут</t>
   </si>
@@ -1406,6 +1408,198 @@
   </si>
   <si>
     <t xml:space="preserve">18 (9 сдвоенные БК и 9 ОБК)</t>
+  </si>
+  <si>
+    <t>Показатель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тек. (на 2024 г.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2032 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Среднесуточный объем перевозки пассажиров ПТОП*, тыс.чел. В том числе:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на трамвайных маршрутах*, тыс. чел.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на троллейбусных маршрутах*, тыс. чел.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на автобусных маршрутах*, тыс. чел.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Доля поездок на ПТОП*, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Средняя скорость движения ПТОП*, км/час</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Среднее время поездки на ПТОП*, минут</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Доля подвижного состава ПТОП, доступного для перевозки маломобильных групп населения, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Доля маршрутов с интервалом в час пик не более 10 минут, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Экологичность (доля транспортных средств высоких экологических классов), %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Удельная мощность маршрутной сети или насыщение подвижным составом на 1 км маршрутной сети ПТОП, кол-во мест/км</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Масса выбросов загрязняющих веществ в атмосферный воздух от ПТОП*, тонн/год</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2: 0,034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2: 0,033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2: 0,030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2: 0,029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2: 0,028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2: 0,027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOx: 1,01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOx: 0,989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOx: 0,960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOx: 0,920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOx: 0,900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOx: 0,870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOx: 0,780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛОСН: 0,031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛОСН: 0,026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛОСН: 0,025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛОСН: 0,023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛОСН: 0,021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛОСН: 0,020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛОСН: 0,015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO: 0,244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO: 0,233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO: 0,223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO: 0,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO: 0,195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO: 0,194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO: 0,170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH3: 0,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4: 0,008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4: 0,007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4: 0,006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4: 0,005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4: 0,003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4: 0,002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Доля остановочных пунктов ПТОП, оснащенных павильоном и информационным табло, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Показатели территориальной доступности ПТОП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Плотность маршрутной сети ПТОП (включая городскую электричку)*, км/км2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Доля площади территории населенных пунктов, находящаяся в нормативном радиусе пешеходной доступности от остановочных пунктов ПТОП*, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автобусы малого класса (МК) – вместимость до 22 чел.;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автобусы среднего класса (СК) – вместимость до 55 чел.;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автобусы и троллейбусы большого класса (БК) – вместимость до 90 чел.;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автобусы и троллейбусы особо большого класса (ОБК) – вместимость до 130 чел.;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трамваи большого класса (БК) – вместимость до 119 чел.;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трамваи особо большого класса (ОБК) – вместимость до 190 чел.</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1693,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1521,6 +1715,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1587,8 +1782,8 @@
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" displayName="Таблица12" ref="A1:M103">
   <autoFilter ref="A1:M103"/>
-  <sortState ref="A2:M103">
-    <sortCondition descending="0" ref="M1:M103"/>
+  <sortState ref="A1:A103">
+    <sortCondition descending="0" ref="A1:A103"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" name="Номер п/п"/>
@@ -8697,64 +8892,64 @@
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
-        <v>52</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>111</v>
+      </c>
+      <c r="L2" s="5">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G2" t="s">
-        <v>456</v>
-      </c>
-      <c r="H2" t="s">
-        <v>456</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>19</v>
-      </c>
-      <c r="K2">
-        <v>58</v>
-      </c>
-      <c r="L2" s="5">
-        <v>10.1</v>
       </c>
       <c r="M2" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>10.631578947368421</v>
+        <v>13.392857142857144</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>426</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
         <v>456</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>456</v>
@@ -8763,76 +8958,76 @@
         <v>456</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="L3" s="5">
-        <v>16.399999999999999</v>
+        <v>23</v>
       </c>
       <c r="M3" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>10.933333333333332</v>
+        <v>12.105263157894738</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4">
-        <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>456</v>
       </c>
       <c r="F4" t="s">
         <v>456</v>
       </c>
-      <c r="G4" t="s">
-        <v>456</v>
+      <c r="G4">
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>456</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="L4" s="5">
-        <v>12</v>
+        <v>25.600000000000001</v>
       </c>
       <c r="M4" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>11.25</v>
+        <v>12.800000000000001</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>370</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>456</v>
@@ -8850,31 +9045,31 @@
         <v>12</v>
       </c>
       <c r="J5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K5">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="L5" s="5">
-        <v>38.600000000000001</v>
+        <v>38.5</v>
       </c>
       <c r="M5" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>11.352941176470587</v>
+        <v>14.807692307692308</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>344</v>
       </c>
       <c r="E6" t="s">
         <v>456</v>
@@ -8883,76 +9078,82 @@
         <v>456</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>456</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="L6" s="5">
-        <v>19.199999999999999</v>
+        <v>16.800000000000001</v>
       </c>
       <c r="M6" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>11.52</v>
+        <v>16.800000000000001</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>440</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>456</v>
       </c>
+      <c r="F7" t="s">
+        <v>456</v>
+      </c>
       <c r="G7">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>456</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="L7" s="5">
-        <v>10</v>
+        <v>27.199999999999999</v>
       </c>
       <c r="M7" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>11.538461538461538</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" t="s">
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
         <v>456</v>
@@ -8961,163 +9162,172 @@
         <v>456</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
         <v>456</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L8" s="5">
-        <v>29</v>
+        <v>27.199999999999999</v>
       </c>
       <c r="M8" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>11.6</v>
+        <v>12.952380952380951</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>456</v>
       </c>
       <c r="F9" t="s">
         <v>456</v>
       </c>
-      <c r="G9" t="s">
-        <v>456</v>
+      <c r="G9">
+        <v>10</v>
       </c>
       <c r="H9" t="s">
         <v>456</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="K9">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="L9" s="5">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M9" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>11.666666666666666</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F10" t="s">
+        <v>456</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>456</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="L10" s="5">
-        <v>14.1</v>
+        <v>26.399999999999999</v>
       </c>
       <c r="M10" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>11.75</v>
+        <v>15.23076923076923</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
         <v>456</v>
       </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>456</v>
+      <c r="F11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
       </c>
       <c r="H11" t="s">
         <v>456</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="L11" s="5">
-        <v>15</v>
+        <v>48.200000000000003</v>
       </c>
       <c r="M11" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>11.842105263157896</v>
+        <v>15.890109890109891</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>456</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>456</v>
@@ -9126,34 +9336,34 @@
         <v>456</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="L12" s="5">
-        <v>10.300000000000001</v>
+        <v>7.2999999999999998</v>
       </c>
       <c r="M12" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>11.884615384615385</v>
+        <v>12.514285714285714</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
         <v>456</v>
@@ -9171,37 +9381,37 @@
         <v>3</v>
       </c>
       <c r="J13">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K13">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="L13" s="5">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M13" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>12.105263157894738</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
         <v>456</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
         <v>456</v>
@@ -9210,70 +9420,76 @@
         <v>456</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K14">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="L14" s="5">
-        <v>7.2999999999999998</v>
+        <v>45.799999999999997</v>
       </c>
       <c r="M14" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>12.514285714285714</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>380</v>
-      </c>
-      <c r="E15" t="s">
-        <v>456</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>456</v>
+      </c>
+      <c r="H15" t="s">
+        <v>456</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K15">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="L15" s="5">
-        <v>27.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="M15" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>12.553846153846154</v>
+        <v>15.882352941176471</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
         <v>456</v>
@@ -9282,82 +9498,82 @@
         <v>456</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H16" t="s">
         <v>456</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="L16" s="5">
-        <v>25.600000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="M16" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>12.800000000000001</v>
+        <v>14.761904761904763</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17">
-        <v>53</v>
-      </c>
-      <c r="B17" s="1">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
         <v>456</v>
       </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>456</v>
+      <c r="F17" t="s">
+        <v>456</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
       </c>
       <c r="H17" t="s">
         <v>456</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="L17" s="5">
-        <v>10.699999999999999</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M17" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>12.839999999999998</v>
+        <v>15.07692307692308</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
         <v>456</v>
@@ -9366,199 +9582,208 @@
         <v>456</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
         <v>456</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J18">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K18">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="L18" s="5">
-        <v>27.199999999999999</v>
+        <v>50.600000000000001</v>
       </c>
       <c r="M18" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>12.952380952380951</v>
+        <v>16.235294117647058</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>456</v>
       </c>
       <c r="F19" t="s">
         <v>456</v>
       </c>
-      <c r="G19" t="s">
-        <v>456</v>
+      <c r="G19">
+        <v>10</v>
       </c>
       <c r="H19" t="s">
         <v>456</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K19">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="L19" s="5">
-        <v>13.699999999999999</v>
+        <v>53.600000000000001</v>
       </c>
       <c r="M19" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>13.047619047619046</v>
+        <v>13.400000000000002</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>339</v>
-      </c>
-      <c r="G20">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>456</v>
+      </c>
+      <c r="F20">
         <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>456</v>
+      </c>
+      <c r="H20" t="s">
+        <v>456</v>
       </c>
       <c r="I20">
         <v>7</v>
       </c>
       <c r="J20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K20">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="L20" s="5">
-        <v>17.100000000000001</v>
+        <v>30.800000000000001</v>
       </c>
       <c r="M20" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>13.324675324675326</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" t="s">
-        <v>456</v>
+        <v>349</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>456</v>
       </c>
-      <c r="G21">
-        <v>7</v>
+      <c r="G21" t="s">
+        <v>456</v>
       </c>
       <c r="H21" t="s">
         <v>456</v>
       </c>
       <c r="I21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="L21" s="5">
-        <v>24.899999999999999</v>
+        <v>14</v>
       </c>
       <c r="M21" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>13.339285714285714</v>
+        <v>11.666666666666666</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>418</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
         <v>456</v>
       </c>
-      <c r="F22" t="s">
-        <v>456</v>
-      </c>
-      <c r="G22">
-        <v>8</v>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>456</v>
       </c>
       <c r="H22" t="s">
         <v>456</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K22">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L22" s="5">
-        <v>25</v>
+        <v>26.699999999999999</v>
       </c>
       <c r="M22" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>13.392857142857144</v>
+        <v>14.563636363636363</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
       <c r="C23" t="s">
         <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
         <v>456</v>
@@ -9576,196 +9801,205 @@
         <v>10</v>
       </c>
       <c r="J23">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K23">
-        <v>241</v>
+        <v>126</v>
       </c>
       <c r="L23" s="5">
-        <v>53.600000000000001</v>
+        <v>30</v>
       </c>
       <c r="M23" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>13.400000000000002</v>
+        <v>13.846153846153847</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
         <v>456</v>
       </c>
-      <c r="F24" t="s">
-        <v>456</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>456</v>
       </c>
       <c r="H24" t="s">
         <v>456</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K24">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L24" s="5">
-        <v>24.699999999999999</v>
+        <v>27.100000000000001</v>
       </c>
       <c r="M24" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>13.472727272727271</v>
+        <v>14.517857142857142</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
         <v>456</v>
       </c>
-      <c r="F25" t="s">
-        <v>456</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>456</v>
       </c>
       <c r="H25" t="s">
         <v>456</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K25">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="L25" s="5">
-        <v>27.199999999999999</v>
+        <v>50.700000000000003</v>
       </c>
       <c r="M25" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>13.6</v>
+        <v>17.28409090909091</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>330</v>
+        <v>120</v>
+      </c>
+      <c r="E26" t="s">
+        <v>456</v>
+      </c>
+      <c r="F26" t="s">
+        <v>456</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>456</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="K26">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L26" s="5">
-        <v>20.100000000000001</v>
+        <v>22.399999999999999</v>
       </c>
       <c r="M26" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>13.704545454545455</v>
+        <v>13.855670103092782</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
         <v>456</v>
       </c>
-      <c r="F27" t="s">
-        <v>456</v>
-      </c>
-      <c r="G27">
-        <v>15</v>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>456</v>
       </c>
       <c r="H27" t="s">
         <v>456</v>
       </c>
       <c r="I27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K27">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="L27" s="5">
-        <v>24</v>
+        <v>50.899999999999999</v>
       </c>
       <c r="M27" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>13.714285714285715</v>
+        <v>16.073684210526313</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
         <v>456</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
         <v>456</v>
@@ -9774,118 +10008,118 @@
         <v>456</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K28">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="L28" s="5">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="M28" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>13.75</v>
+        <v>14.625</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" t="s">
-        <v>456</v>
+        <v>129</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>456</v>
       </c>
-      <c r="G29">
-        <v>10</v>
+      <c r="G29" t="s">
+        <v>456</v>
       </c>
       <c r="H29" t="s">
         <v>456</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="L29" s="5">
-        <v>27.5</v>
+        <v>14.300000000000001</v>
       </c>
       <c r="M29" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>13.75</v>
+        <v>16.823529411764707</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
         <v>456</v>
       </c>
-      <c r="F30" t="s">
-        <v>456</v>
-      </c>
-      <c r="G30">
-        <v>8</v>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>456</v>
       </c>
       <c r="H30" t="s">
         <v>456</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K30">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="L30" s="5">
-        <v>25.800000000000001</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="M30" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>13.821428571428573</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
         <v>456</v>
@@ -9894,40 +10128,40 @@
         <v>456</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
         <v>456</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K31">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L31" s="5">
-        <v>30</v>
+        <v>31.300000000000001</v>
       </c>
       <c r="M31" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>13.846153846153847</v>
+        <v>14.904761904761905</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
         <v>456</v>
@@ -9936,166 +10170,166 @@
         <v>456</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H32" t="s">
         <v>456</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J32">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="K32">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="L32" s="5">
-        <v>22.399999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="M32" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>13.855670103092782</v>
+        <v>16.27272727272727</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>429</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
         <v>456</v>
       </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-      <c r="G33" t="s">
-        <v>456</v>
+      <c r="F33" t="s">
+        <v>456</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>456</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="L33" s="5">
-        <v>14</v>
+        <v>19.800000000000001</v>
       </c>
       <c r="M33" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>443</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
         <v>456</v>
       </c>
-      <c r="F34" t="s">
-        <v>456</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>456</v>
       </c>
       <c r="H34" t="s">
         <v>456</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K34">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="L34" s="5">
-        <v>14</v>
+        <v>29.399999999999999</v>
       </c>
       <c r="M34" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14</v>
+        <v>16.96153846153846</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
         <v>456</v>
       </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-      <c r="G35" t="s">
-        <v>456</v>
+      <c r="F35" t="s">
+        <v>456</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
       </c>
       <c r="H35" t="s">
         <v>456</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K35">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="L35" s="5">
-        <v>10.6</v>
+        <v>19.800000000000001</v>
       </c>
       <c r="M35" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.133333333333335</v>
+        <v>19.161290322580648</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36">
-        <v>41</v>
-      </c>
-      <c r="B36" s="1">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>353</v>
       </c>
       <c r="E36" t="s">
         <v>456</v>
@@ -10104,124 +10338,124 @@
         <v>456</v>
       </c>
       <c r="G36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H36" t="s">
         <v>456</v>
       </c>
       <c r="I36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J36">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K36">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="L36" s="5">
-        <v>24.699999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="M36" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.25</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>356</v>
       </c>
       <c r="E37" t="s">
         <v>456</v>
       </c>
-      <c r="F37" t="s">
-        <v>456</v>
+      <c r="F37">
+        <v>8</v>
       </c>
       <c r="G37">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H37" t="s">
         <v>456</v>
       </c>
       <c r="I37">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J37">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K37">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L37" s="5">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M37" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.285714285714286</v>
+        <v>17.407407407407408</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>333</v>
-      </c>
-      <c r="E38" t="s">
-        <v>456</v>
+        <v>157</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
       </c>
       <c r="F38" t="s">
         <v>456</v>
       </c>
-      <c r="G38">
-        <v>15</v>
+      <c r="G38" t="s">
+        <v>456</v>
       </c>
       <c r="H38" t="s">
         <v>456</v>
       </c>
       <c r="I38">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J38">
         <v>7</v>
       </c>
       <c r="K38">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="L38" s="5">
-        <v>25</v>
+        <v>13.699999999999999</v>
       </c>
       <c r="M38" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.285714285714286</v>
+        <v>13.047619047619046</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
         <v>456</v>
@@ -10230,124 +10464,124 @@
         <v>456</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
         <v>456</v>
       </c>
       <c r="I39">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J39">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K39">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="L39" s="5">
-        <v>24.600000000000001</v>
+        <v>40</v>
       </c>
       <c r="M39" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.47058823529412</v>
+        <v>14.285714285714286</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="A40">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
         <v>456</v>
       </c>
-      <c r="F40">
-        <v>8</v>
-      </c>
-      <c r="G40" t="s">
-        <v>456</v>
+      <c r="F40" t="s">
+        <v>456</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
       </c>
       <c r="H40" t="s">
         <v>456</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K40">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="L40" s="5">
-        <v>27.100000000000001</v>
+        <v>40.399999999999999</v>
       </c>
       <c r="M40" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.517857142857142</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
         <v>456</v>
       </c>
       <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
         <v>10</v>
       </c>
-      <c r="G41" t="s">
-        <v>456</v>
-      </c>
       <c r="H41" t="s">
         <v>456</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J41">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K41">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="L41" s="5">
-        <v>26.699999999999999</v>
+        <v>61.600000000000001</v>
       </c>
       <c r="M41" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.563636363636363</v>
+        <v>15.529411764705884</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42">
-        <v>35</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>352</v>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>353</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
         <v>456</v>
@@ -10356,49 +10590,49 @@
         <v>456</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H42" t="s">
         <v>456</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K42">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="L42" s="5">
-        <v>14.6</v>
+        <v>24.699999999999999</v>
       </c>
       <c r="M42" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.6</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="E43" t="s">
         <v>456</v>
       </c>
-      <c r="F43">
-        <v>8</v>
-      </c>
-      <c r="G43" t="s">
-        <v>456</v>
+      <c r="F43" t="s">
+        <v>456</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
       </c>
       <c r="H43" t="s">
         <v>456</v>
@@ -10407,67 +10641,73 @@
         <v>8</v>
       </c>
       <c r="J43">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K43">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="L43" s="5">
-        <v>19.5</v>
+        <v>25.800000000000001</v>
       </c>
       <c r="M43" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.625</v>
+        <v>13.821428571428573</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
         <v>456</v>
       </c>
-      <c r="G44">
-        <v>9</v>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>456</v>
+      </c>
+      <c r="H44" t="s">
+        <v>456</v>
       </c>
       <c r="I44">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K44">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="L44" s="5">
-        <v>22</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="M44" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.666666666666668</v>
+        <v>17.4375</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E45" t="s">
         <v>456</v>
@@ -10476,208 +10716,208 @@
         <v>456</v>
       </c>
       <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>456</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
         <v>12</v>
       </c>
-      <c r="H45" t="s">
-        <v>456</v>
-      </c>
-      <c r="I45">
-        <v>12</v>
-      </c>
-      <c r="J45">
-        <v>13</v>
-      </c>
       <c r="K45">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="L45" s="5">
-        <v>38.200000000000003</v>
+        <v>27.5</v>
       </c>
       <c r="M45" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.692307692307693</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="E46" t="s">
         <v>456</v>
       </c>
-      <c r="F46" t="s">
-        <v>456</v>
-      </c>
-      <c r="G46">
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>456</v>
+      </c>
+      <c r="H46" t="s">
+        <v>456</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
         <v>9</v>
       </c>
-      <c r="H46" t="s">
-        <v>456</v>
-      </c>
-      <c r="I46">
-        <v>9</v>
-      </c>
-      <c r="J46">
-        <v>7</v>
-      </c>
       <c r="K46">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="L46" s="5">
-        <v>15.5</v>
+        <v>10.6</v>
       </c>
       <c r="M46" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.761904761904763</v>
+        <v>14.133333333333335</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>429</v>
+        <v>181</v>
       </c>
       <c r="E47" t="s">
         <v>456</v>
       </c>
-      <c r="F47">
-        <v>5</v>
-      </c>
-      <c r="G47" t="s">
-        <v>456</v>
+      <c r="F47" t="s">
+        <v>456</v>
+      </c>
+      <c r="G47">
+        <v>12</v>
       </c>
       <c r="H47" t="s">
         <v>456</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J47">
         <v>13</v>
       </c>
       <c r="K47">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="L47" s="5">
-        <v>16</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="M47" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.76923076923077</v>
+        <v>14.692307692307693</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>359</v>
       </c>
       <c r="E48" t="s">
         <v>456</v>
       </c>
-      <c r="F48" t="s">
-        <v>456</v>
-      </c>
-      <c r="G48">
-        <v>20</v>
+      <c r="F48">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>456</v>
       </c>
       <c r="H48" t="s">
         <v>456</v>
       </c>
       <c r="I48">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J48">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K48">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L48" s="5">
-        <v>44.399999999999999</v>
+        <v>50.600000000000001</v>
       </c>
       <c r="M48" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.799999999999999</v>
+        <v>15.569230769230769</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49">
-        <v>4</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>56</v>
       </c>
       <c r="C49" t="s">
         <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>423</v>
       </c>
       <c r="E49" t="s">
         <v>456</v>
       </c>
-      <c r="F49" t="s">
-        <v>456</v>
-      </c>
-      <c r="G49">
-        <v>12</v>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>456</v>
       </c>
       <c r="H49" t="s">
         <v>456</v>
       </c>
       <c r="I49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K49">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="L49" s="5">
-        <v>38.5</v>
+        <v>36</v>
       </c>
       <c r="M49" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.807692307692308</v>
+        <v>15.428571428571431</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
         <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>362</v>
       </c>
       <c r="E50" t="s">
         <v>456</v>
@@ -10686,40 +10926,40 @@
         <v>456</v>
       </c>
       <c r="G50">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H50" t="s">
         <v>456</v>
       </c>
       <c r="I50">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="L50" s="5">
-        <v>31.300000000000001</v>
+        <v>25</v>
       </c>
       <c r="M50" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.904761904761905</v>
+        <v>15.957446808510639</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51">
-        <v>80</v>
-      </c>
-      <c r="B51" s="1">
-        <v>94</v>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>287</v>
+        <v>194</v>
       </c>
       <c r="E51" t="s">
         <v>456</v>
@@ -10728,160 +10968,166 @@
         <v>456</v>
       </c>
       <c r="G51">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H51" t="s">
         <v>456</v>
       </c>
       <c r="I51">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J51">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K51">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="L51" s="5">
-        <v>52.299999999999997</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M51" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>14.942857142857141</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>278</v>
-      </c>
-      <c r="E52" t="s">
-        <v>456</v>
-      </c>
-      <c r="F52" t="s">
-        <v>456</v>
-      </c>
-      <c r="G52">
-        <v>10</v>
+        <v>178</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>456</v>
       </c>
       <c r="H52" t="s">
         <v>456</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J52">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K52">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="L52" s="5">
-        <v>40</v>
+        <v>10.300000000000001</v>
       </c>
       <c r="M52" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15</v>
+        <v>11.884615384615385</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="A53">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
-      </c>
-      <c r="E53" t="s">
-        <v>456</v>
-      </c>
-      <c r="G53">
-        <v>10</v>
+        <v>199</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>456</v>
+      </c>
+      <c r="G53" t="s">
+        <v>456</v>
+      </c>
+      <c r="H53" t="s">
+        <v>456</v>
       </c>
       <c r="I53">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J53">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K53">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="L53" s="5">
-        <v>35.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="M53" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.042857142857143</v>
+        <v>10.631578947368421</v>
       </c>
     </row>
     <row r="54" ht="14.25">
       <c r="A54">
-        <v>16</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>61</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="E54" t="s">
         <v>456</v>
       </c>
-      <c r="F54" t="s">
-        <v>456</v>
-      </c>
-      <c r="G54">
-        <v>6</v>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>456</v>
       </c>
       <c r="H54" t="s">
         <v>456</v>
       </c>
       <c r="I54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J54">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K54">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="L54" s="5">
-        <v>39.200000000000003</v>
+        <v>10.699999999999999</v>
       </c>
       <c r="M54" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.07692307692308</v>
+        <v>12.839999999999998</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="E55" t="s">
         <v>456</v>
@@ -10890,82 +11136,82 @@
         <v>456</v>
       </c>
       <c r="G55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H55" t="s">
         <v>456</v>
       </c>
       <c r="I55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J55">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K55">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="L55" s="5">
-        <v>37.700000000000003</v>
+        <v>41.100000000000001</v>
       </c>
       <c r="M55" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.080000000000002</v>
+        <v>18.969230769230769</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="A56">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>250</v>
-      </c>
-      <c r="E56" t="s">
-        <v>456</v>
+        <v>365</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>456</v>
       </c>
-      <c r="G56">
-        <v>12</v>
+      <c r="G56" t="s">
+        <v>456</v>
       </c>
       <c r="H56" t="s">
         <v>456</v>
       </c>
       <c r="I56">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J56">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="K56">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="L56" s="5">
-        <v>24.199999999999999</v>
+        <v>20</v>
       </c>
       <c r="M56" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.125</v>
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E57" t="s">
         <v>456</v>
@@ -10983,31 +11229,31 @@
         <v>10</v>
       </c>
       <c r="J57">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K57">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="L57" s="5">
-        <v>40.399999999999999</v>
+        <v>24.699999999999999</v>
       </c>
       <c r="M57" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.15</v>
+        <v>13.472727272727271</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58">
-        <v>9</v>
-      </c>
-      <c r="B58" s="1">
-        <v>8</v>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="E58" t="s">
         <v>456</v>
@@ -11016,49 +11262,49 @@
         <v>456</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H58" t="s">
         <v>456</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J58">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K58">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="L58" s="5">
-        <v>26.399999999999999</v>
+        <v>28.899999999999999</v>
       </c>
       <c r="M58" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.23076923076923</v>
+        <v>15.763636363636362</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>423</v>
+        <v>215</v>
       </c>
       <c r="E59" t="s">
         <v>456</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="s">
+        <v>456</v>
+      </c>
+      <c r="G59">
         <v>10</v>
-      </c>
-      <c r="G59" t="s">
-        <v>456</v>
       </c>
       <c r="H59" t="s">
         <v>456</v>
@@ -11067,157 +11313,157 @@
         <v>10</v>
       </c>
       <c r="J59">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K59">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="L59" s="5">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M59" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.428571428571431</v>
+        <v>15.882352941176471</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60">
-        <v>78</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>67</v>
       </c>
       <c r="C60" t="s">
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="E60" t="s">
         <v>456</v>
       </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-      <c r="G60" t="s">
-        <v>456</v>
+      <c r="F60" t="s">
+        <v>456</v>
+      </c>
+      <c r="G60">
+        <v>20</v>
       </c>
       <c r="H60" t="s">
         <v>456</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J60">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="K60">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="L60" s="5">
-        <v>34.5</v>
+        <v>44.399999999999999</v>
       </c>
       <c r="M60" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.447761194029852</v>
+        <v>14.799999999999999</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
         <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="E61" t="s">
         <v>456</v>
       </c>
       <c r="F61">
-        <v>4</v>
-      </c>
-      <c r="G61">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>456</v>
       </c>
       <c r="H61" t="s">
         <v>456</v>
       </c>
       <c r="I61">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="L61" s="5">
-        <v>61.600000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="M61" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.529411764705884</v>
+        <v>16.588235294117649</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
         <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>359</v>
+        <v>226</v>
       </c>
       <c r="E62" t="s">
         <v>456</v>
       </c>
-      <c r="F62">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s">
-        <v>456</v>
+      <c r="F62" t="s">
+        <v>456</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
       </c>
       <c r="H62" t="s">
         <v>456</v>
       </c>
       <c r="I62">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J62">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K62">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="L62" s="5">
-        <v>50.600000000000001</v>
+        <v>28.800000000000001</v>
       </c>
       <c r="M62" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.569230769230769</v>
+        <v>15.709090909090907</v>
       </c>
     </row>
     <row r="63" ht="14.25">
       <c r="A63">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
         <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="E63" t="s">
         <v>456</v>
@@ -11226,130 +11472,130 @@
         <v>456</v>
       </c>
       <c r="G63">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H63" t="s">
         <v>456</v>
       </c>
       <c r="I63">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J63">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K63">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L63" s="5">
-        <v>26.600000000000001</v>
+        <v>24</v>
       </c>
       <c r="M63" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.647058823529413</v>
+        <v>13.714285714285715</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E64" t="s">
         <v>456</v>
       </c>
-      <c r="F64" t="s">
-        <v>456</v>
-      </c>
-      <c r="G64">
-        <v>5</v>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>456</v>
       </c>
       <c r="H64" t="s">
         <v>456</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J64">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K64">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="L64" s="5">
-        <v>28.800000000000001</v>
+        <v>25.300000000000001</v>
       </c>
       <c r="M64" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.709090909090907</v>
+        <v>16.866666666666667</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65">
-        <v>57</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>73</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="E65" t="s">
         <v>456</v>
       </c>
-      <c r="F65" t="s">
-        <v>456</v>
-      </c>
-      <c r="G65">
-        <v>10</v>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>456</v>
       </c>
       <c r="H65" t="s">
         <v>456</v>
       </c>
       <c r="I65">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J65">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K65">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="L65" s="5">
-        <v>28.899999999999999</v>
+        <v>28.399999999999999</v>
       </c>
       <c r="M65" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.763636363636362</v>
+        <v>18.725274725274726</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="A66">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>456</v>
       </c>
       <c r="G66" t="s">
         <v>456</v>
@@ -11358,151 +11604,160 @@
         <v>456</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J66">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K66">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="L66" s="5">
-        <v>18</v>
+        <v>42.5</v>
       </c>
       <c r="M66" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.882352941176471</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67">
-        <v>58</v>
-      </c>
-      <c r="B67" s="1">
         <v>66</v>
       </c>
+      <c r="B67" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C67" t="s">
         <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" t="s">
-        <v>456</v>
+        <v>241</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
       </c>
       <c r="F67" t="s">
         <v>456</v>
       </c>
-      <c r="G67">
-        <v>10</v>
+      <c r="G67" t="s">
+        <v>456</v>
       </c>
       <c r="H67" t="s">
         <v>456</v>
       </c>
       <c r="I67">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K67">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="L67" s="5">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="M67" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.882352941176471</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
         <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" t="s">
-        <v>456</v>
+        <v>244</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>456</v>
       </c>
-      <c r="G68">
-        <v>7</v>
+      <c r="G68" t="s">
+        <v>456</v>
       </c>
       <c r="H68" t="s">
         <v>456</v>
       </c>
       <c r="I68">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J68">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K68">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="L68" s="5">
-        <v>48.200000000000003</v>
+        <v>21.600000000000001</v>
       </c>
       <c r="M68" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.890109890109891</v>
+        <v>18.782608695652176</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="A69">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>407</v>
-      </c>
-      <c r="G69">
-        <v>9</v>
+        <v>247</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>456</v>
+      </c>
+      <c r="G69" t="s">
+        <v>456</v>
+      </c>
+      <c r="H69" t="s">
+        <v>456</v>
       </c>
       <c r="I69">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J69">
         <v>13</v>
       </c>
       <c r="K69">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="L69" s="5">
-        <v>31</v>
+        <v>15.4</v>
       </c>
       <c r="M69" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.897435897435898</v>
+        <v>17.76923076923077</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
         <v>37</v>
       </c>
       <c r="D70" t="s">
-        <v>362</v>
+        <v>250</v>
       </c>
       <c r="E70" t="s">
         <v>456</v>
@@ -11511,157 +11766,166 @@
         <v>456</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
         <v>456</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J70">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="K70">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L70" s="5">
-        <v>25</v>
+        <v>24.199999999999999</v>
       </c>
       <c r="M70" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>15.957446808510639</v>
+        <v>15.125</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>321</v>
+        <v>255</v>
+      </c>
+      <c r="E71" t="s">
+        <v>456</v>
+      </c>
+      <c r="F71" t="s">
+        <v>456</v>
       </c>
       <c r="G71">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="H71" t="s">
+        <v>456</v>
       </c>
       <c r="I71">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J71">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K71">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="L71" s="5">
-        <v>23.5</v>
+        <v>24.899999999999999</v>
       </c>
       <c r="M71" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>16.022727272727273</v>
+        <v>13.339285714285714</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
         <v>37</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="E72" t="s">
         <v>456</v>
       </c>
-      <c r="F72">
-        <v>10</v>
-      </c>
-      <c r="G72" t="s">
-        <v>456</v>
+      <c r="F72" t="s">
+        <v>456</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
       </c>
       <c r="H72" t="s">
         <v>456</v>
       </c>
       <c r="I72">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J72">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L72" s="5">
-        <v>50.899999999999999</v>
+        <v>52.600000000000001</v>
       </c>
       <c r="M72" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>16.073684210526313</v>
+        <v>16.4375</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
         <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>92</v>
+        <v>261</v>
       </c>
       <c r="E73" t="s">
         <v>456</v>
       </c>
-      <c r="F73" t="s">
-        <v>456</v>
-      </c>
-      <c r="G73">
-        <v>17</v>
+      <c r="F73">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>456</v>
       </c>
       <c r="H73" t="s">
         <v>456</v>
       </c>
       <c r="I73">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J73">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K73">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="L73" s="5">
-        <v>50.600000000000001</v>
+        <v>35.5</v>
       </c>
       <c r="M73" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>16.235294117647058</v>
+        <v>16.904761904761905</v>
       </c>
     </row>
     <row r="74" ht="14.25">
       <c r="A74">
-        <v>31</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>23</v>
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>84</v>
       </c>
       <c r="C74" t="s">
         <v>37</v>
       </c>
       <c r="D74" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="E74" t="s">
         <v>456</v>
@@ -11670,40 +11934,40 @@
         <v>456</v>
       </c>
       <c r="G74">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H74" t="s">
         <v>456</v>
       </c>
       <c r="I74">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J74">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K74">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="L74" s="5">
-        <v>17.899999999999999</v>
+        <v>26.600000000000001</v>
       </c>
       <c r="M74" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>16.27272727272727</v>
+        <v>15.647058823529413</v>
       </c>
     </row>
     <row r="75" ht="14.25">
       <c r="A75">
-        <v>87</v>
-      </c>
-      <c r="B75" s="1">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="C75" t="s">
-        <v>298</v>
+        <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="E75" t="s">
         <v>456</v>
@@ -11712,49 +11976,49 @@
         <v>456</v>
       </c>
       <c r="G75">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
         <v>456</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J75">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K75">
-        <v>90.900000000000006</v>
+        <v>198</v>
       </c>
       <c r="L75" s="5">
-        <v>24.5</v>
+        <v>38.600000000000001</v>
       </c>
       <c r="M75" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>16.333333333333332</v>
+        <v>11.352941176470587</v>
       </c>
     </row>
     <row r="76" ht="14.25">
       <c r="A76">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
         <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E76" t="s">
         <v>456</v>
       </c>
-      <c r="F76" t="s">
-        <v>456</v>
-      </c>
-      <c r="G76">
+      <c r="F76">
         <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>456</v>
       </c>
       <c r="H76" t="s">
         <v>456</v>
@@ -11763,73 +12027,73 @@
         <v>4</v>
       </c>
       <c r="J76">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K76">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="L76" s="5">
-        <v>52.600000000000001</v>
+        <v>15</v>
       </c>
       <c r="M76" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>16.4375</v>
+        <v>11.842105263157896</v>
       </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
         <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>426</v>
       </c>
       <c r="E77" t="s">
         <v>456</v>
       </c>
-      <c r="F77" t="s">
-        <v>456</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77" t="s">
+        <v>456</v>
       </c>
       <c r="H77" t="s">
         <v>456</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J77">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="K77">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="L77" s="5">
-        <v>19.800000000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="M77" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>16.5</v>
+        <v>10.933333333333332</v>
       </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
         <v>37</v>
       </c>
       <c r="D78" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E78" t="s">
         <v>456</v>
@@ -11838,46 +12102,46 @@
         <v>456</v>
       </c>
       <c r="G78">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H78" t="s">
         <v>456</v>
       </c>
       <c r="I78">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J78">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K78">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="L78" s="5">
-        <v>53.700000000000003</v>
+        <v>40</v>
       </c>
       <c r="M78" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>16.523076923076925</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" ht="14.25">
       <c r="A79">
-        <v>60</v>
-      </c>
-      <c r="B79" s="1">
-        <v>68</v>
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C79" t="s">
         <v>37</v>
       </c>
       <c r="D79" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="E79" t="s">
         <v>456</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="s">
         <v>456</v>
@@ -11886,20 +12150,20 @@
         <v>456</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="K79">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="L79" s="5">
-        <v>14.1</v>
+        <v>34.5</v>
       </c>
       <c r="M79" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>16.588235294117649</v>
+        <v>15.447761194029852</v>
       </c>
     </row>
     <row r="80" ht="14.25">
@@ -11946,16 +12210,16 @@
     </row>
     <row r="81" ht="14.25">
       <c r="A81">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="E81" t="s">
         <v>456</v>
@@ -11973,37 +12237,37 @@
         <v>15</v>
       </c>
       <c r="J81">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K81">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="L81" s="5">
-        <v>16.800000000000001</v>
+        <v>52.299999999999997</v>
       </c>
       <c r="M81" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>16.800000000000001</v>
+        <v>14.942857142857141</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
         <v>37</v>
       </c>
       <c r="D82" t="s">
-        <v>129</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>456</v>
+        <v>429</v>
+      </c>
+      <c r="E82" t="s">
+        <v>456</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
       </c>
       <c r="G82" t="s">
         <v>456</v>
@@ -12012,82 +12276,82 @@
         <v>456</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J82">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="K82">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="L82" s="5">
-        <v>14.300000000000001</v>
+        <v>14</v>
       </c>
       <c r="M82" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>16.823529411764707</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" ht="14.25">
       <c r="A83">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="E83" t="s">
         <v>456</v>
       </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-      <c r="G83" t="s">
-        <v>456</v>
+      <c r="F83" t="s">
+        <v>456</v>
+      </c>
+      <c r="G83">
+        <v>15</v>
       </c>
       <c r="H83" t="s">
         <v>456</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J83">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K83">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="L83" s="5">
-        <v>25.300000000000001</v>
+        <v>53.700000000000003</v>
       </c>
       <c r="M83" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>16.866666666666667</v>
+        <v>16.523076923076925</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
         <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>429</v>
       </c>
       <c r="E84" t="s">
         <v>456</v>
       </c>
       <c r="F84">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G84" t="s">
         <v>456</v>
@@ -12096,85 +12360,85 @@
         <v>456</v>
       </c>
       <c r="I84">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J84">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K84">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="L84" s="5">
-        <v>35.5</v>
+        <v>16</v>
       </c>
       <c r="M84" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>16.904761904761905</v>
+        <v>14.76923076923077</v>
       </c>
     </row>
     <row r="85" ht="14.25">
       <c r="A85">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
         <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>292</v>
       </c>
       <c r="E85" t="s">
         <v>456</v>
       </c>
-      <c r="F85">
-        <v>8</v>
-      </c>
-      <c r="G85" t="s">
-        <v>456</v>
+      <c r="F85" t="s">
+        <v>456</v>
+      </c>
+      <c r="G85">
+        <v>15</v>
       </c>
       <c r="H85" t="s">
         <v>456</v>
       </c>
       <c r="I85">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J85">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K85">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="L85" s="5">
-        <v>29.399999999999999</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="M85" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>16.96153846153846</v>
+        <v>15.080000000000002</v>
       </c>
     </row>
     <row r="86" ht="14.25">
       <c r="A86">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
         <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>238</v>
-      </c>
-      <c r="E86">
+        <v>295</v>
+      </c>
+      <c r="E86" t="s">
+        <v>456</v>
+      </c>
+      <c r="F86" t="s">
+        <v>456</v>
+      </c>
+      <c r="G86">
         <v>6</v>
-      </c>
-      <c r="F86" t="s">
-        <v>456</v>
-      </c>
-      <c r="G86" t="s">
-        <v>456</v>
       </c>
       <c r="H86" t="s">
         <v>456</v>
@@ -12183,199 +12447,199 @@
         <v>6</v>
       </c>
       <c r="J86">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K86">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="L86" s="5">
-        <v>42.5</v>
+        <v>24.600000000000001</v>
       </c>
       <c r="M86" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>17</v>
+        <v>14.47058823529412</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="A87">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="D87" t="s">
-        <v>113</v>
+        <v>434</v>
       </c>
       <c r="E87" t="s">
         <v>456</v>
       </c>
-      <c r="F87">
-        <v>8</v>
+      <c r="F87" t="s">
+        <v>456</v>
       </c>
       <c r="G87" t="s">
         <v>456</v>
       </c>
-      <c r="H87" t="s">
-        <v>456</v>
+      <c r="H87">
+        <v>16</v>
       </c>
       <c r="I87">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J87">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K87">
-        <v>177</v>
+        <v>98.5</v>
       </c>
       <c r="L87" s="5">
-        <v>50.700000000000003</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M87" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>17.28409090909091</v>
+        <v>17.625</v>
       </c>
     </row>
     <row r="88" ht="14.25">
       <c r="A88">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="D88" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="E88" t="s">
         <v>456</v>
       </c>
-      <c r="F88">
-        <v>8</v>
+      <c r="F88" t="s">
+        <v>456</v>
       </c>
       <c r="G88">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H88" t="s">
         <v>456</v>
       </c>
       <c r="I88">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J88">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K88">
-        <v>170</v>
+        <v>90.900000000000006</v>
       </c>
       <c r="L88" s="5">
-        <v>47</v>
+        <v>24.5</v>
       </c>
       <c r="M88" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>17.407407407407408</v>
+        <v>16.333333333333332</v>
       </c>
     </row>
     <row r="89" ht="14.25">
       <c r="A89">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="D89" t="s">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="E89" t="s">
         <v>456</v>
       </c>
-      <c r="F89">
-        <v>2</v>
+      <c r="F89" t="s">
+        <v>456</v>
       </c>
       <c r="G89" t="s">
         <v>456</v>
       </c>
-      <c r="H89" t="s">
-        <v>456</v>
+      <c r="H89">
+        <v>17</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J89">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="K89">
-        <v>65</v>
+        <v>112.90000000000001</v>
       </c>
       <c r="L89" s="5">
-        <v>18.600000000000001</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="M89" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>17.4375</v>
+        <v>18.554621848739494</v>
       </c>
     </row>
     <row r="90" ht="14.25">
       <c r="A90">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="D90" t="s">
-        <v>98</v>
+        <v>378</v>
       </c>
       <c r="E90" t="s">
         <v>456</v>
       </c>
-      <c r="F90">
-        <v>7</v>
+      <c r="F90" t="s">
+        <v>456</v>
       </c>
       <c r="G90" t="s">
         <v>456</v>
       </c>
       <c r="H90" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I90">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J90">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K90">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L90" s="5">
-        <v>30.800000000000001</v>
+        <v>39.600000000000001</v>
       </c>
       <c r="M90" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>17.600000000000001</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="14.25">
       <c r="A91">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
         <v>298</v>
       </c>
       <c r="D91" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E91" t="s">
         <v>456</v>
@@ -12387,40 +12651,40 @@
         <v>456</v>
       </c>
       <c r="H91">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I91">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J91">
         <v>6</v>
       </c>
       <c r="K91">
-        <v>98.5</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="L91" s="5">
-        <v>28.199999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="M91" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>17.625</v>
+        <v>22.692307692307693</v>
       </c>
     </row>
     <row r="92" ht="14.25">
       <c r="A92">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>247</v>
-      </c>
-      <c r="E92">
-        <v>4</v>
+        <v>438</v>
+      </c>
+      <c r="E92" t="s">
+        <v>456</v>
       </c>
       <c r="F92" t="s">
         <v>456</v>
@@ -12428,416 +12692,347 @@
       <c r="G92" t="s">
         <v>456</v>
       </c>
-      <c r="H92" t="s">
-        <v>456</v>
+      <c r="H92">
+        <v>11</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J92">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K92">
-        <v>52</v>
+        <v>72.5</v>
       </c>
       <c r="L92" s="5">
-        <v>15.4</v>
+        <v>27.100000000000001</v>
       </c>
       <c r="M92" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>17.76923076923077</v>
+        <v>21.116883116883116</v>
       </c>
     </row>
     <row r="93" ht="14.25">
       <c r="A93">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="D93" t="s">
-        <v>365</v>
-      </c>
-      <c r="E93">
-        <v>3</v>
-      </c>
-      <c r="F93" t="s">
-        <v>456</v>
-      </c>
-      <c r="G93" t="s">
-        <v>456</v>
-      </c>
-      <c r="H93" t="s">
-        <v>456</v>
+        <v>309</v>
+      </c>
+      <c r="G93">
+        <v>9</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J93">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K93">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L93" s="5">
-        <v>20</v>
+        <v>14.1</v>
       </c>
       <c r="M93" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>18.181818181818183</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="94" ht="14.25">
       <c r="A94">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="D94" t="s">
-        <v>76</v>
-      </c>
-      <c r="E94" t="s">
-        <v>456</v>
-      </c>
-      <c r="F94">
-        <v>10</v>
-      </c>
-      <c r="G94" t="s">
-        <v>456</v>
-      </c>
-      <c r="H94" t="s">
-        <v>456</v>
+        <v>339</v>
+      </c>
+      <c r="G94">
+        <v>7</v>
       </c>
       <c r="I94">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J94">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K94">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="L94" s="5">
-        <v>45.799999999999997</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="M94" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>18.32</v>
+        <v>13.324675324675326</v>
       </c>
     </row>
     <row r="95" ht="14.25">
       <c r="A95">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D95" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="E95" t="s">
         <v>456</v>
       </c>
-      <c r="F95" t="s">
-        <v>456</v>
-      </c>
-      <c r="G95" t="s">
-        <v>456</v>
-      </c>
-      <c r="H95">
-        <v>17</v>
+      <c r="G95">
+        <v>10</v>
       </c>
       <c r="I95">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J95">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K95">
-        <v>112.90000000000001</v>
+        <v>132</v>
       </c>
       <c r="L95" s="5">
-        <v>36.799999999999997</v>
+        <v>27.199999999999999</v>
       </c>
       <c r="M95" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>18.554621848739494</v>
+        <v>12.553846153846154</v>
       </c>
     </row>
     <row r="96" ht="14.25">
       <c r="A96">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="D96" t="s">
-        <v>235</v>
-      </c>
-      <c r="E96" t="s">
-        <v>456</v>
-      </c>
-      <c r="F96">
-        <v>7</v>
-      </c>
-      <c r="G96" t="s">
-        <v>456</v>
-      </c>
-      <c r="H96" t="s">
-        <v>456</v>
+        <v>407</v>
+      </c>
+      <c r="G96">
+        <v>9</v>
       </c>
       <c r="I96">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J96">
         <v>13</v>
       </c>
       <c r="K96">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="L96" s="5">
-        <v>28.399999999999999</v>
+        <v>31</v>
       </c>
       <c r="M96" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>18.725274725274726</v>
+        <v>15.897435897435898</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="D97" t="s">
-        <v>244</v>
-      </c>
-      <c r="E97">
-        <v>3</v>
-      </c>
-      <c r="F97" t="s">
-        <v>456</v>
-      </c>
-      <c r="G97" t="s">
-        <v>456</v>
-      </c>
-      <c r="H97" t="s">
-        <v>456</v>
+        <v>321</v>
+      </c>
+      <c r="G97">
+        <v>8</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J97">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K97">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="L97" s="5">
-        <v>21.600000000000001</v>
+        <v>23.5</v>
       </c>
       <c r="M97" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>18.782608695652176</v>
+        <v>16.022727272727273</v>
       </c>
     </row>
     <row r="98" ht="14.25">
       <c r="A98">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="D98" t="s">
-        <v>204</v>
+        <v>440</v>
       </c>
       <c r="E98" t="s">
         <v>456</v>
       </c>
-      <c r="F98" t="s">
-        <v>456</v>
-      </c>
       <c r="G98">
-        <v>10</v>
-      </c>
-      <c r="H98" t="s">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J98">
         <v>13</v>
       </c>
       <c r="K98">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="L98" s="5">
-        <v>41.100000000000001</v>
+        <v>10</v>
       </c>
       <c r="M98" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>18.969230769230769</v>
+        <v>11.538461538461538</v>
       </c>
     </row>
     <row r="99" ht="14.25">
       <c r="A99">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
-      </c>
-      <c r="E99" t="s">
-        <v>456</v>
-      </c>
-      <c r="F99">
-        <v>6</v>
-      </c>
-      <c r="G99" t="s">
-        <v>456</v>
-      </c>
-      <c r="H99" t="s">
-        <v>456</v>
+        <v>330</v>
+      </c>
+      <c r="G99">
+        <v>8</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J99">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K99">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="L99" s="5">
-        <v>17.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="M99" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>19</v>
+        <v>13.704545454545455</v>
       </c>
     </row>
     <row r="100" ht="14.25">
       <c r="A100">
-        <v>34</v>
-      </c>
-      <c r="B100" s="1">
-        <v>39</v>
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="C100" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="D100" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="E100" t="s">
         <v>456</v>
       </c>
-      <c r="F100" t="s">
-        <v>456</v>
-      </c>
       <c r="G100">
-        <v>2</v>
-      </c>
-      <c r="H100" t="s">
-        <v>456</v>
+        <v>10</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J100">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K100">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L100" s="5">
-        <v>19.800000000000001</v>
+        <v>35.100000000000001</v>
       </c>
       <c r="M100" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>19.161290322580648</v>
+        <v>15.042857142857143</v>
       </c>
     </row>
     <row r="101" ht="14.25">
       <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>18</v>
+      </c>
+      <c r="C101" t="s">
+        <v>305</v>
+      </c>
+      <c r="D101" t="s">
+        <v>411</v>
+      </c>
+      <c r="E101" t="s">
+        <v>456</v>
+      </c>
+      <c r="G101">
+        <v>9</v>
+      </c>
+      <c r="I101">
+        <v>9</v>
+      </c>
+      <c r="J101">
+        <v>10</v>
+      </c>
+      <c r="K101">
         <v>91</v>
       </c>
-      <c r="B101" s="1">
-        <v>15</v>
-      </c>
-      <c r="C101" t="s">
-        <v>298</v>
-      </c>
-      <c r="D101" t="s">
-        <v>438</v>
-      </c>
-      <c r="E101" t="s">
-        <v>456</v>
-      </c>
-      <c r="F101" t="s">
-        <v>456</v>
-      </c>
-      <c r="G101" t="s">
-        <v>456</v>
-      </c>
-      <c r="H101">
-        <v>11</v>
-      </c>
-      <c r="I101">
-        <v>11</v>
-      </c>
-      <c r="J101">
-        <v>7</v>
-      </c>
-      <c r="K101">
-        <v>72.5</v>
-      </c>
       <c r="L101" s="5">
-        <v>27.100000000000001</v>
+        <v>22</v>
       </c>
       <c r="M101" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>21.116883116883116</v>
+        <v>14.666666666666668</v>
       </c>
     </row>
     <row r="102" ht="14.25">
       <c r="A102">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D102" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="E102" t="s">
         <v>456</v>
@@ -12845,69 +13040,69 @@
       <c r="F102" t="s">
         <v>456</v>
       </c>
-      <c r="G102" t="s">
-        <v>456</v>
+      <c r="G102">
+        <v>15</v>
       </c>
       <c r="H102" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I102">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K102">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L102" s="5">
-        <v>39.600000000000001</v>
+        <v>25</v>
       </c>
       <c r="M102" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>22</v>
+        <v>14.285714285714286</v>
       </c>
     </row>
     <row r="103" ht="14.25">
       <c r="A103">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1">
+        <v>23</v>
+      </c>
+      <c r="C103" t="s">
+        <v>305</v>
+      </c>
+      <c r="D103" t="s">
+        <v>443</v>
+      </c>
+      <c r="E103" t="s">
+        <v>456</v>
+      </c>
+      <c r="F103" t="s">
+        <v>456</v>
+      </c>
+      <c r="G103">
+        <v>4</v>
+      </c>
+      <c r="H103" t="s">
+        <v>456</v>
+      </c>
+      <c r="I103">
+        <v>4</v>
+      </c>
+      <c r="J103">
+        <v>15</v>
+      </c>
+      <c r="K103">
+        <v>61</v>
+      </c>
+      <c r="L103" s="5">
         <v>14</v>
-      </c>
-      <c r="C103" t="s">
-        <v>298</v>
-      </c>
-      <c r="D103" t="s">
-        <v>436</v>
-      </c>
-      <c r="E103" t="s">
-        <v>456</v>
-      </c>
-      <c r="F103" t="s">
-        <v>456</v>
-      </c>
-      <c r="G103" t="s">
-        <v>456</v>
-      </c>
-      <c r="H103">
-        <v>13</v>
-      </c>
-      <c r="I103">
-        <v>13</v>
-      </c>
-      <c r="J103">
-        <v>6</v>
-      </c>
-      <c r="K103">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="L103" s="5">
-        <v>29.5</v>
       </c>
       <c r="M103" s="4">
         <f>Таблица12[[#This Row],[Протяженность маршрута (туда и обратно), км]]/Таблица12[[#This Row],[Всего]]/Таблица12[[#This Row],[Минимальный интервал движения, мин]]*60</f>
-        <v>22.692307692307693</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" ht="14.25">
@@ -12936,6 +13131,616 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="137.00390625"/>
+    <col bestFit="1" min="2" max="2" width="14.140625"/>
+    <col bestFit="1" min="3" max="8" width="11.421875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2">
+        <v>540.5</v>
+      </c>
+      <c r="C2">
+        <v>545.39999999999998</v>
+      </c>
+      <c r="D2">
+        <v>555.79999999999995</v>
+      </c>
+      <c r="E2">
+        <v>560.5</v>
+      </c>
+      <c r="F2">
+        <v>570.70000000000005</v>
+      </c>
+      <c r="G2">
+        <v>600.20000000000005</v>
+      </c>
+      <c r="H2">
+        <v>650.10000000000002</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>6.2000000000000002</v>
+      </c>
+      <c r="D3">
+        <v>12.199999999999999</v>
+      </c>
+      <c r="E3">
+        <v>55.100000000000001</v>
+      </c>
+      <c r="F3">
+        <v>85.299999999999997</v>
+      </c>
+      <c r="G3">
+        <v>180.19999999999999</v>
+      </c>
+      <c r="H3">
+        <v>230.09999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4">
+        <v>19.699999999999999</v>
+      </c>
+      <c r="C4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D4">
+        <v>25.600000000000001</v>
+      </c>
+      <c r="E4">
+        <v>29.399999999999999</v>
+      </c>
+      <c r="F4">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>55.100000000000001</v>
+      </c>
+      <c r="H4">
+        <v>65.700000000000003</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5">
+        <v>509.89999999999998</v>
+      </c>
+      <c r="C5">
+        <v>519.10000000000002</v>
+      </c>
+      <c r="D5">
+        <v>518</v>
+      </c>
+      <c r="E5">
+        <v>476</v>
+      </c>
+      <c r="F5">
+        <v>442.39999999999998</v>
+      </c>
+      <c r="G5">
+        <v>364.89999999999998</v>
+      </c>
+      <c r="H5">
+        <v>354.30000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.32000000000000001</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.32000000000000001</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.33000000000000002</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7">
+        <v>16.199999999999999</v>
+      </c>
+      <c r="C7">
+        <v>16.199999999999999</v>
+      </c>
+      <c r="D7">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E7">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F7">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B8">
+        <v>56.899999999999999</v>
+      </c>
+      <c r="C8">
+        <v>56.899999999999999</v>
+      </c>
+      <c r="D8">
+        <v>56.5</v>
+      </c>
+      <c r="E8">
+        <v>56.100000000000001</v>
+      </c>
+      <c r="F8">
+        <v>55.899999999999999</v>
+      </c>
+      <c r="G8">
+        <v>55.399999999999999</v>
+      </c>
+      <c r="H8">
+        <v>54.100000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B9">
+        <v>98.200000000000003</v>
+      </c>
+      <c r="C9">
+        <v>98.200000000000003</v>
+      </c>
+      <c r="D9">
+        <v>98.200000000000003</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B10">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C10">
+        <v>21.199999999999999</v>
+      </c>
+      <c r="D10">
+        <v>21.899999999999999</v>
+      </c>
+      <c r="E10">
+        <v>22.199999999999999</v>
+      </c>
+      <c r="F10">
+        <v>23.300000000000001</v>
+      </c>
+      <c r="G10">
+        <v>24.100000000000001</v>
+      </c>
+      <c r="H10">
+        <v>25.199999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11">
+        <v>98.700000000000003</v>
+      </c>
+      <c r="C11">
+        <v>98.700000000000003</v>
+      </c>
+      <c r="D11">
+        <v>98.700000000000003</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="C12">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D12">
+        <v>39.5</v>
+      </c>
+      <c r="E12">
+        <v>42.299999999999997</v>
+      </c>
+      <c r="F12">
+        <v>43.100000000000001</v>
+      </c>
+      <c r="G12">
+        <v>45.899999999999999</v>
+      </c>
+      <c r="H12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B13" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" t="s">
+        <v>480</v>
+      </c>
+      <c r="D13" t="s">
+        <v>481</v>
+      </c>
+      <c r="E13" t="s">
+        <v>482</v>
+      </c>
+      <c r="F13" t="s">
+        <v>483</v>
+      </c>
+      <c r="G13" t="s">
+        <v>484</v>
+      </c>
+      <c r="H13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>486</v>
+      </c>
+      <c r="C14" t="s">
+        <v>487</v>
+      </c>
+      <c r="D14" t="s">
+        <v>488</v>
+      </c>
+      <c r="E14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F14" t="s">
+        <v>490</v>
+      </c>
+      <c r="G14" t="s">
+        <v>491</v>
+      </c>
+      <c r="H14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>493</v>
+      </c>
+      <c r="C15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D15" t="s">
+        <v>495</v>
+      </c>
+      <c r="E15" t="s">
+        <v>496</v>
+      </c>
+      <c r="F15" t="s">
+        <v>497</v>
+      </c>
+      <c r="G15" t="s">
+        <v>498</v>
+      </c>
+      <c r="H15" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>500</v>
+      </c>
+      <c r="C16" t="s">
+        <v>501</v>
+      </c>
+      <c r="D16" t="s">
+        <v>502</v>
+      </c>
+      <c r="E16" t="s">
+        <v>503</v>
+      </c>
+      <c r="F16" t="s">
+        <v>504</v>
+      </c>
+      <c r="G16" t="s">
+        <v>505</v>
+      </c>
+      <c r="H16" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>507</v>
+      </c>
+      <c r="C17" t="s">
+        <v>507</v>
+      </c>
+      <c r="D17" t="s">
+        <v>507</v>
+      </c>
+      <c r="E17" t="s">
+        <v>507</v>
+      </c>
+      <c r="F17" t="s">
+        <v>507</v>
+      </c>
+      <c r="G17" t="s">
+        <v>507</v>
+      </c>
+      <c r="H17" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>508</v>
+      </c>
+      <c r="C18" t="s">
+        <v>508</v>
+      </c>
+      <c r="D18" t="s">
+        <v>509</v>
+      </c>
+      <c r="E18" t="s">
+        <v>510</v>
+      </c>
+      <c r="F18" t="s">
+        <v>511</v>
+      </c>
+      <c r="G18" t="s">
+        <v>512</v>
+      </c>
+      <c r="H18" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>514</v>
+      </c>
+      <c r="B19">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>69</v>
+      </c>
+      <c r="E19">
+        <v>77</v>
+      </c>
+      <c r="F19">
+        <v>85</v>
+      </c>
+      <c r="G19">
+        <v>93</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>516</v>
+      </c>
+      <c r="B21">
+        <v>2.77</v>
+      </c>
+      <c r="C21">
+        <v>2.7799999999999998</v>
+      </c>
+      <c r="D21">
+        <v>2.7799999999999998</v>
+      </c>
+      <c r="E21">
+        <v>2.77</v>
+      </c>
+      <c r="F21">
+        <v>2.79</v>
+      </c>
+      <c r="G21">
+        <v>2.7999999999999998</v>
+      </c>
+      <c r="H21">
+        <v>2.7999999999999998</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>517</v>
+      </c>
+      <c r="B22">
+        <v>95.700000000000003</v>
+      </c>
+      <c r="C22">
+        <v>95.799999999999997</v>
+      </c>
+      <c r="D22">
+        <v>96.200000000000003</v>
+      </c>
+      <c r="E22">
+        <v>96.200000000000003</v>
+      </c>
+      <c r="F22">
+        <v>97.099999999999994</v>
+      </c>
+      <c r="G22">
+        <v>98.200000000000003</v>
+      </c>
+      <c r="H22">
+        <v>98.200000000000003</v>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="73.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
